--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -1375,7 +1375,7 @@
         <v>78</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>100</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="103">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -373,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -385,6 +391,7 @@
     <col min="4" max="4" width="47.4296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -406,45 +413,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -466,1045 +482,1204 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -391,7 +391,7 @@
     <col min="4" max="4" width="47.4296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1253,7 +1253,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>81</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="104">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento perdita di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento perdita di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -483,1203 +486,1203 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="107">
   <si>
     <t>Sezione</t>
   </si>
@@ -182,6 +182,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -312,6 +318,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Decreto intimazione</t>
@@ -382,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -888,7 +897,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -980,7 +989,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1095,7 +1104,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>34</v>
@@ -1158,19 +1167,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1181,16 +1190,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>85</v>
@@ -1204,7 +1213,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
@@ -1213,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>87</v>
@@ -1227,7 +1236,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
@@ -1236,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1250,7 +1259,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1259,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1273,16 +1282,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1296,7 +1305,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1305,7 +1314,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1319,7 +1328,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1328,7 +1337,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1342,7 +1351,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1351,7 +1360,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1365,19 +1374,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1388,19 +1397,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1411,19 +1420,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1434,19 +1443,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1457,19 +1466,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1489,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1512,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1535,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1558,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1581,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1604,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1627,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1650,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1664,24 +1673,70 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>84</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -391,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1127,7 +1151,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>34</v>
@@ -1150,7 +1174,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>34</v>
@@ -1173,7 +1197,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>34</v>
@@ -1190,19 +1214,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1213,19 +1237,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1236,19 +1260,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1259,19 +1283,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1282,16 +1306,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1305,16 +1329,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1328,16 +1352,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1351,16 +1375,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1374,16 +1398,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1397,19 +1421,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1420,19 +1444,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1443,19 +1467,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1490,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1513,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1536,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1559,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1558,19 +1582,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1581,19 +1605,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1628,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1651,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1674,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1697,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1720,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1719,24 +1743,116 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -737,7 +743,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -829,7 +835,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -944,7 +950,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1036,7 +1042,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1243,7 +1249,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -1306,19 +1312,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1329,16 +1335,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1361,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1375,7 +1381,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1384,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1398,7 +1404,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1407,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1421,16 +1427,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1453,7 +1459,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1467,7 +1473,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1476,7 +1482,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1499,7 +1505,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1513,19 +1519,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1559,16 +1565,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>95</v>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>96</v>
@@ -1591,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>97</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>104</v>
@@ -1637,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>105</v>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>106</v>
@@ -1660,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>107</v>
@@ -1674,7 +1680,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>108</v>
@@ -1683,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>109</v>
@@ -1700,7 +1706,7 @@
         <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1709,7 +1715,7 @@
         <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1720,16 +1726,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>95</v>
@@ -1743,7 +1749,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>96</v>
@@ -1752,7 +1758,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>97</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1789,16 +1795,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>105</v>
@@ -1812,16 +1818,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>107</v>
@@ -1835,16 +1841,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>109</v>
@@ -1853,6 +1859,29 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1019,7 +1025,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1042,7 +1048,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1272,7 +1278,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>34</v>
@@ -1335,19 +1341,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1358,16 +1364,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1381,7 +1387,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1390,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1413,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1427,7 +1433,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1436,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1450,16 +1456,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1473,7 +1479,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1482,7 +1488,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1496,7 +1502,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1505,7 +1511,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1519,7 +1525,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1528,7 +1534,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1542,19 +1548,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1571,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1588,16 +1594,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>97</v>
@@ -1611,7 +1617,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>98</v>
@@ -1620,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>99</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>106</v>
@@ -1666,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>107</v>
@@ -1680,7 +1686,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>108</v>
@@ -1689,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>109</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>110</v>
@@ -1712,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>111</v>
@@ -1729,7 +1735,7 @@
         <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -1738,7 +1744,7 @@
         <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1749,16 +1755,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>97</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>98</v>
@@ -1781,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>99</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1818,16 +1824,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>107</v>
@@ -1841,16 +1847,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>109</v>
@@ -1864,16 +1870,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>111</v>
@@ -1882,6 +1888,29 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -294,6 +294,81 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Provvedimento Min. Interni</t>
@@ -427,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -437,7 +512,7 @@
     <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="47.4296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1370,7 +1445,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>96</v>
@@ -1382,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -1390,22 +1465,22 @@
         <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -1413,22 +1488,22 @@
         <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -1436,22 +1511,22 @@
         <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45">
@@ -1459,22 +1534,22 @@
         <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
@@ -1482,7 +1557,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
@@ -1491,13 +1566,13 @@
         <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
@@ -1520,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1612,13 @@
         <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
@@ -1551,7 +1626,7 @@
         <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
@@ -1560,13 +1635,13 @@
         <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
@@ -1574,7 +1649,7 @@
         <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
@@ -1589,70 +1664,70 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1893,24 +1968,300 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -502,14 +508,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.80859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="47.4296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1376,7 +1382,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1439,53 +1445,53 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>101</v>
@@ -1494,7 +1500,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>102</v>
@@ -1503,12 +1509,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>103</v>
@@ -1517,7 +1523,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>104</v>
@@ -1526,12 +1532,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1540,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>106</v>
@@ -1549,12 +1555,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>107</v>
@@ -1563,44 +1569,44 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1609,44 +1615,44 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1655,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1664,12 +1670,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1678,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1687,12 +1693,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1701,7 +1707,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1710,44 +1716,44 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1770,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1784,7 +1790,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
@@ -1793,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1816,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1830,16 +1836,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1853,7 +1859,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
@@ -1862,7 +1868,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1876,7 +1882,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
@@ -1885,7 +1891,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1899,7 +1905,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
@@ -1908,7 +1914,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,16 +1974,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>124</v>
@@ -1991,7 +1997,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>125</v>
@@ -2000,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>126</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,7 +2043,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>133</v>
@@ -2046,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>134</v>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>135</v>
@@ -2069,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>136</v>
@@ -2083,7 +2089,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>137</v>
@@ -2092,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>138</v>
@@ -2109,7 +2115,7 @@
         <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2118,7 +2124,7 @@
         <v>143</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,16 +2135,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>124</v>
@@ -2152,7 +2158,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>125</v>
@@ -2161,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>126</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,16 +2204,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>134</v>
@@ -2221,16 +2227,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>136</v>
@@ -2244,16 +2250,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>138</v>
@@ -2262,6 +2268,29 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -508,14 +502,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.80859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="47.4296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1382,7 +1376,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1445,53 +1439,53 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>101</v>
@@ -1500,7 +1494,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>102</v>
@@ -1509,12 +1503,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>103</v>
@@ -1523,7 +1517,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>104</v>
@@ -1532,12 +1526,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1546,7 +1540,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>106</v>
@@ -1555,12 +1549,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>107</v>
@@ -1569,44 +1563,44 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1615,44 +1609,44 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1661,7 +1655,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1670,12 +1664,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1684,7 +1678,7 @@
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1693,12 +1687,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1707,7 +1701,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1716,44 +1710,44 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1767,7 +1761,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1776,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1790,7 +1784,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
@@ -1799,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1813,7 +1807,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1822,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1836,16 +1830,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1859,7 +1853,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
@@ -1868,7 +1862,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1882,7 +1876,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
@@ -1891,7 +1885,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1905,7 +1899,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
@@ -1914,7 +1908,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1928,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,16 +1968,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>124</v>
@@ -1997,7 +1991,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>125</v>
@@ -2006,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>126</v>
@@ -2020,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,7 +2037,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>133</v>
@@ -2052,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>134</v>
@@ -2066,7 +2060,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>135</v>
@@ -2075,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>136</v>
@@ -2089,7 +2083,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>137</v>
@@ -2098,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>138</v>
@@ -2115,7 +2109,7 @@
         <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2124,7 +2118,7 @@
         <v>143</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,16 +2129,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>124</v>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>125</v>
@@ -2167,7 +2161,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>126</v>
@@ -2181,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,16 +2198,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>134</v>
@@ -2227,16 +2221,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>136</v>
@@ -2250,16 +2244,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>138</v>
@@ -2268,29 +2262,6 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -876,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -899,7 +911,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -945,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -968,7 +980,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -1060,7 +1072,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1083,7 +1095,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1106,7 +1118,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1129,7 +1141,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1405,7 +1417,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>34</v>
@@ -1428,7 +1440,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
@@ -1468,76 +1480,76 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1546,7 +1558,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>106</v>
@@ -1555,12 +1567,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>107</v>
@@ -1569,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>108</v>
@@ -1578,12 +1590,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>109</v>
@@ -1592,113 +1604,113 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1707,7 +1719,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1716,12 +1728,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -1730,7 +1742,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1739,67 +1751,67 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1813,7 +1825,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1822,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1836,7 +1848,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
@@ -1845,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1859,16 +1871,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1882,16 +1894,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1905,7 +1917,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
@@ -1914,7 +1926,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1928,7 +1940,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>139</v>
@@ -1937,7 +1949,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>140</v>
@@ -1951,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,16 +2032,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>128</v>
@@ -2043,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,7 +2101,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>137</v>
@@ -2098,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>138</v>
@@ -2112,7 +2124,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>139</v>
@@ -2121,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>140</v>
@@ -2135,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,16 +2193,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>128</v>
@@ -2204,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,7 +2262,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>137</v>
@@ -2259,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>138</v>
@@ -2273,7 +2285,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>139</v>
@@ -2282,7 +2294,7 @@
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>140</v>
@@ -2291,6 +2303,52 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>18</v>
       </c>
     </row>
